--- a/Team7_Dollardays/testdata/testdata1.xlsx
+++ b/Team7_Dollardays/testdata/testdata1.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lakshmi\eclipse-workspace\DollarDays_30Aug\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ECB5C2B3-9B64-4494-ADC1-4F78D05A14D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16460" windowHeight="6420"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="16488" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I22"/>
 </workbook>
 </file>
 
@@ -56,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,6 +209,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -247,6 +261,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,22 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -473,31 +504,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
